--- a/程序用_正式版_基础版/Scenes.xlsx
+++ b/程序用_正式版_基础版/Scenes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D240DF8F-60D1-4549-BA46-57F72D92E77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254BAF0A-4075-4326-BAEF-CBE8E18C6A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="840" windowWidth="36480" windowHeight="19665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="330" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@Types" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="415">
   <si>
     <t>ObjectType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,22 +415,6 @@
     <t>E17</t>
   </si>
   <si>
-    <t>可破坏物(子弹)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可破坏物(金币)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可破坏物(药瓶)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可破坏物(技能点)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DamageableBullet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -989,10 +973,6 @@
     <t>E18</t>
   </si>
   <si>
-    <t>爆炸物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SpawnEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1489,27 +1469,98 @@
     <t>E26</t>
   </si>
   <si>
-    <t>可破坏物(药瓶小)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可破坏物(药瓶大)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可破坏物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>伤害物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>特殊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落物</t>
+  </si>
+  <si>
+    <t>掉落物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可造成伤害物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自爆物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldBig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E27</t>
+  </si>
+  <si>
+    <t>金币(大)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能是空罐子1号</t>
+  </si>
+  <si>
+    <t>可能是空罐子2号</t>
+  </si>
+  <si>
+    <t>可能是空罐子3号</t>
+  </si>
+  <si>
+    <t>子弹补充罐</t>
+  </si>
+  <si>
+    <t>高级子弹罐</t>
+  </si>
+  <si>
+    <t>DamageableHealth2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageableBullet2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageableAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E28</t>
+  </si>
+  <si>
+    <t>E29</t>
+  </si>
+  <si>
+    <t>E30</t>
+  </si>
+  <si>
+    <t>E31</t>
+  </si>
+  <si>
+    <t>高级血包罐</t>
+  </si>
+  <si>
+    <t>可破坏物</t>
+  </si>
+  <si>
+    <t>血包罐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量金币罐:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛宴掉落罐，必定掉落子弹+血包+金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageableGold2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1696,13 +1747,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2020,10 +2071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K152"/>
+  <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2031,7 +2082,7 @@
     <col min="1" max="1" width="38.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
     <col min="3" max="6" width="11" style="1"/>
-    <col min="7" max="7" width="41.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11" style="1"/>
   </cols>
@@ -2089,7 +2140,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
@@ -2101,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
@@ -2110,10 +2161,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -2122,19 +2173,19 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -2143,19 +2194,19 @@
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
@@ -2164,19 +2215,19 @@
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
@@ -2185,19 +2236,19 @@
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
@@ -2206,19 +2257,19 @@
         <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>14</v>
@@ -2227,19 +2278,19 @@
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>14</v>
@@ -2248,19 +2299,19 @@
         <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>14</v>
@@ -2269,19 +2320,19 @@
         <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>14</v>
@@ -2290,11 +2341,11 @@
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2359,7 +2410,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -2370,7 +2421,7 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2378,7 +2429,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -2389,7 +2440,7 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2397,7 +2448,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -2408,7 +2459,7 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2416,7 +2467,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -2427,7 +2478,7 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2435,7 +2486,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -2446,7 +2497,7 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2454,7 +2505,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -2465,7 +2516,7 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2473,7 +2524,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -2484,7 +2535,7 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2492,7 +2543,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -2503,7 +2554,7 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2511,7 +2562,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -2522,7 +2573,7 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2545,13 +2596,16 @@
       <c r="G26" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="H26" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>14</v>
@@ -2564,10 +2618,10 @@
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>398</v>
+        <v>198</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2575,7 +2629,7 @@
         <v>36</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>14</v>
@@ -2588,10 +2642,10 @@
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>398</v>
+        <v>195</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2599,7 +2653,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>14</v>
@@ -2612,10 +2666,10 @@
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2623,7 +2677,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>14</v>
@@ -2636,10 +2690,10 @@
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>396</v>
+        <v>398</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2647,7 +2701,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>14</v>
@@ -2660,10 +2714,10 @@
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>396</v>
+        <v>399</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2671,7 +2725,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>14</v>
@@ -2684,10 +2738,10 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>396</v>
+        <v>400</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2710,8 +2764,8 @@
       <c r="G33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>397</v>
+      <c r="H33" s="3" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2734,8 +2788,8 @@
       <c r="G34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>397</v>
+      <c r="H34" s="3" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2759,7 +2813,7 @@
         <v>29</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2767,7 +2821,7 @@
         <v>22</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>14</v>
@@ -2780,10 +2834,10 @@
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2807,7 +2861,7 @@
         <v>30</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2831,7 +2885,7 @@
         <v>58</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2855,7 +2909,7 @@
         <v>59</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2879,7 +2933,7 @@
         <v>60</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2903,7 +2957,7 @@
         <v>34</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2927,7 +2981,7 @@
         <v>35</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2951,7 +3005,7 @@
         <v>31</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2959,7 +3013,7 @@
         <v>22</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>14</v>
@@ -2968,14 +3022,14 @@
         <v>18</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>398</v>
+        <v>393</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2983,7 +3037,7 @@
         <v>22</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>14</v>
@@ -2992,14 +3046,14 @@
         <v>19</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>398</v>
+        <v>238</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3007,7 +3061,7 @@
         <v>22</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>14</v>
@@ -3016,14 +3070,14 @@
         <v>20</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>398</v>
+        <v>244</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3031,7 +3085,7 @@
         <v>22</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>14</v>
@@ -3040,14 +3094,14 @@
         <v>21</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>398</v>
+        <v>265</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3055,7 +3109,7 @@
         <v>22</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>14</v>
@@ -3064,14 +3118,14 @@
         <v>22</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>398</v>
+        <v>377</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3079,7 +3133,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>14</v>
@@ -3088,14 +3142,14 @@
         <v>23</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3103,7 +3157,7 @@
         <v>22</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>14</v>
@@ -3112,14 +3166,14 @@
         <v>24</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3127,7 +3181,7 @@
         <v>22</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>14</v>
@@ -3136,14 +3190,14 @@
         <v>25</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>396</v>
+        <v>411</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3151,7 +3205,7 @@
         <v>22</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>14</v>
@@ -3160,126 +3214,134 @@
         <v>26</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="C53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="3">
+        <v>27</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>19</v>
+      <c r="H53" s="3" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54">
-        <v>10001</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>305</v>
-      </c>
+      <c r="A54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="3">
+        <v>28</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
-        <v>222</v>
+        <v>401</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>378</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55">
-        <v>10002</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>306</v>
-      </c>
+      <c r="A55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="3">
+        <v>29</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F55" s="3"/>
       <c r="G55" s="3" t="s">
-        <v>334</v>
+        <v>409</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>378</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>33</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56">
-        <v>10003</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>307</v>
-      </c>
+      <c r="A56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="3">
+        <v>30</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F56" s="3"/>
       <c r="G56" s="3" t="s">
-        <v>335</v>
+        <v>412</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>378</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57">
-        <v>10004</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>308</v>
-      </c>
+      <c r="A57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="3">
+        <v>31</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F57" s="3"/>
       <c r="G57" s="3" t="s">
-        <v>336</v>
+        <v>413</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>378</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3287,22 +3349,19 @@
         <v>33</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>309</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
       </c>
       <c r="D58">
-        <v>10005</v>
+        <v>0</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>378</v>
+        <v>17</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3310,22 +3369,22 @@
         <v>33</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
       </c>
       <c r="D59">
-        <v>10006</v>
+        <v>10001</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>338</v>
+        <v>218</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3333,22 +3392,22 @@
         <v>33</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
       <c r="D60">
-        <v>10007</v>
+        <v>10002</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3356,22 +3415,22 @@
         <v>33</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
       </c>
       <c r="D61">
-        <v>10008</v>
+        <v>10003</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3379,22 +3438,22 @@
         <v>33</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
       </c>
       <c r="D62">
-        <v>10009</v>
+        <v>10004</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3402,22 +3461,22 @@
         <v>33</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
       </c>
       <c r="D63">
-        <v>10010</v>
+        <v>10005</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3425,22 +3484,22 @@
         <v>33</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="D64">
-        <v>10011</v>
+        <v>10006</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3448,22 +3507,22 @@
         <v>33</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
       </c>
       <c r="D65">
-        <v>10012</v>
+        <v>10007</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3471,22 +3530,22 @@
         <v>33</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>372</v>
+        <v>307</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
       </c>
       <c r="D66">
-        <v>10013</v>
+        <v>10008</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>372</v>
+        <v>307</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3494,22 +3553,22 @@
         <v>33</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67">
-        <v>20001</v>
+        <v>10009</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="G67" t="s">
-        <v>225</v>
-      </c>
-      <c r="H67" t="s">
-        <v>379</v>
+        <v>308</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3517,22 +3576,22 @@
         <v>33</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
       <c r="D68">
-        <v>20002</v>
+        <v>10010</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="G68" t="s">
-        <v>352</v>
-      </c>
-      <c r="H68" t="s">
-        <v>379</v>
+        <v>309</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3540,22 +3599,22 @@
         <v>33</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
       </c>
       <c r="D69">
-        <v>20003</v>
+        <v>10011</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="G69" t="s">
-        <v>351</v>
-      </c>
-      <c r="H69" t="s">
-        <v>379</v>
+        <v>310</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3563,22 +3622,22 @@
         <v>33</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
       </c>
       <c r="D70">
-        <v>20004</v>
+        <v>10012</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="G70" t="s">
-        <v>345</v>
-      </c>
-      <c r="H70" t="s">
-        <v>379</v>
+        <v>311</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3586,22 +3645,22 @@
         <v>33</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71">
-        <v>20005</v>
+        <v>10013</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G71" t="s">
-        <v>346</v>
-      </c>
-      <c r="H71" t="s">
-        <v>379</v>
+        <v>367</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3609,22 +3668,22 @@
         <v>33</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72">
-        <v>20006</v>
+        <v>20001</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G72" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H72" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3632,22 +3691,22 @@
         <v>33</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73">
-        <v>20007</v>
+        <v>20002</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G73" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H73" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3655,22 +3714,22 @@
         <v>33</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
       </c>
       <c r="D74">
-        <v>20008</v>
+        <v>20003</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="G74" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H74" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3678,22 +3737,22 @@
         <v>33</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
       </c>
       <c r="D75">
-        <v>20009</v>
+        <v>20004</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G75" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H75" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3701,22 +3760,22 @@
         <v>33</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
       </c>
       <c r="D76">
-        <v>20010</v>
+        <v>20005</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="G76" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H76" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3724,22 +3783,22 @@
         <v>33</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>373</v>
+        <v>317</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
       </c>
       <c r="D77">
-        <v>20011</v>
+        <v>20006</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>373</v>
+        <v>317</v>
       </c>
       <c r="G77" t="s">
-        <v>375</v>
+        <v>220</v>
       </c>
       <c r="H77" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3747,22 +3806,22 @@
         <v>33</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
       </c>
       <c r="D78">
-        <v>30001</v>
+        <v>20007</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>376</v>
+        <v>318</v>
+      </c>
+      <c r="G78" t="s">
+        <v>348</v>
+      </c>
+      <c r="H78" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3770,22 +3829,22 @@
         <v>33</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
       </c>
       <c r="D79">
-        <v>30002</v>
+        <v>20008</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>376</v>
+        <v>319</v>
+      </c>
+      <c r="G79" t="s">
+        <v>342</v>
+      </c>
+      <c r="H79" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3793,22 +3852,22 @@
         <v>33</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
       </c>
       <c r="D80">
-        <v>30003</v>
+        <v>20009</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>376</v>
+        <v>320</v>
+      </c>
+      <c r="G80" t="s">
+        <v>343</v>
+      </c>
+      <c r="H80" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3816,22 +3875,22 @@
         <v>33</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
       </c>
       <c r="D81">
-        <v>30004</v>
+        <v>20010</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>376</v>
+        <v>321</v>
+      </c>
+      <c r="G81" t="s">
+        <v>344</v>
+      </c>
+      <c r="H81" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3839,22 +3898,22 @@
         <v>33</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
       </c>
       <c r="D82">
-        <v>30005</v>
+        <v>20011</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>376</v>
+        <v>368</v>
+      </c>
+      <c r="G82" t="s">
+        <v>370</v>
+      </c>
+      <c r="H82" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3862,22 +3921,22 @@
         <v>33</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="D83">
-        <v>30006</v>
+        <v>30001</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>358</v>
+        <v>219</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3885,22 +3944,22 @@
         <v>33</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
       </c>
       <c r="D84">
-        <v>40001</v>
+        <v>30002</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="G84" t="s">
-        <v>359</v>
-      </c>
-      <c r="H84" t="s">
-        <v>377</v>
+        <v>323</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3908,1347 +3967,1462 @@
         <v>33</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
       </c>
       <c r="D85">
+        <v>30003</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86">
+        <v>30004</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87">
+        <v>30005</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88">
+        <v>30006</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89">
+        <v>40001</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G89" t="s">
+        <v>354</v>
+      </c>
+      <c r="H89" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90">
         <v>40002</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="G85" t="s">
-        <v>360</v>
-      </c>
-      <c r="H85" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="3">
-        <v>0</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" s="3">
-        <v>1</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H87"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" s="3">
-        <v>2</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H88"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="3">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H89"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" s="3">
-        <v>4</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3" t="s">
-        <v>162</v>
+      <c r="E90" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G90" t="s">
+        <v>355</v>
+      </c>
+      <c r="H90" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="H92"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="H93"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="H94"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="C95" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H95"/>
+        <v>158</v>
+      </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H96"/>
+        <v>159</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="H97"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H98"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H99"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H100"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H101"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H102"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="3">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H103"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H104"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H105"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H106"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="3">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H107"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="3">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="H108"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="3">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="H109"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="3">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H110"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="H111"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="3">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H112"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>226</v>
+        <v>98</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="F113" s="3"/>
-      <c r="G113" s="8" t="s">
-        <v>234</v>
+      <c r="G113" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="H113"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>227</v>
+        <v>99</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="3">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>231</v>
+        <v>123</v>
       </c>
       <c r="F114" s="3"/>
-      <c r="G114" s="8" t="s">
-        <v>235</v>
+      <c r="G114" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="H114"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>228</v>
+        <v>100</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="3">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>232</v>
+        <v>124</v>
       </c>
       <c r="F115" s="3"/>
-      <c r="G115" s="8" t="s">
-        <v>236</v>
+      <c r="G115" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="H115"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D116" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>233</v>
+        <v>125</v>
       </c>
       <c r="F116" s="3"/>
-      <c r="G116" s="8" t="s">
-        <v>237</v>
+      <c r="G116" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="H116"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>244</v>
+        <v>102</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="3">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>245</v>
+        <v>126</v>
       </c>
       <c r="F117" s="3"/>
-      <c r="G117" s="8" t="s">
-        <v>246</v>
+      <c r="G117" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="H117"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="3">
-        <v>1001</v>
+        <v>27</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>64</v>
+        <v>226</v>
       </c>
       <c r="F118" s="3"/>
-      <c r="G118" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="G118" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H118"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="3">
-        <v>1002</v>
+        <v>28</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="F119" s="3"/>
-      <c r="G119" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="G119" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H119"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>134</v>
+        <v>224</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="3">
-        <v>1003</v>
+        <v>29</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="F120" s="3"/>
-      <c r="G120" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="G120" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H120"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="3">
-        <v>1004</v>
+        <v>30</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>67</v>
+        <v>229</v>
       </c>
       <c r="F121" s="3"/>
-      <c r="G121" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="G121" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H121"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="3">
-        <v>1005</v>
+        <v>31</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c r="F122" s="3"/>
-      <c r="G122" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="G122" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H122"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="3">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D124" s="3">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="3">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="3">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="3">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="3">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>271</v>
-      </c>
-      <c r="B129" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" s="3">
+        <v>1007</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="3">
+        <v>1008</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="3">
+        <v>1009</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="3">
+        <v>1010</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" s="3">
+        <v>1011</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" t="s">
         <v>17</v>
       </c>
-      <c r="C129" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129">
+      <c r="C134" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134">
         <v>0</v>
-      </c>
-      <c r="E129" t="s">
-        <v>283</v>
-      </c>
-      <c r="F129"/>
-      <c r="G129" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>271</v>
-      </c>
-      <c r="B130" t="s">
-        <v>272</v>
-      </c>
-      <c r="C130" t="s">
-        <v>14</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130" t="s">
-        <v>274</v>
-      </c>
-      <c r="F130"/>
-      <c r="G130" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>271</v>
-      </c>
-      <c r="B131" t="s">
-        <v>273</v>
-      </c>
-      <c r="C131" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131">
-        <v>2</v>
-      </c>
-      <c r="E131" t="s">
-        <v>275</v>
-      </c>
-      <c r="F131"/>
-      <c r="G131" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>271</v>
-      </c>
-      <c r="B132" t="s">
-        <v>284</v>
-      </c>
-      <c r="C132" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132">
-        <v>3</v>
-      </c>
-      <c r="E132" t="s">
-        <v>276</v>
-      </c>
-      <c r="F132"/>
-      <c r="G132" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>271</v>
-      </c>
-      <c r="B133" t="s">
-        <v>285</v>
-      </c>
-      <c r="C133" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133">
-        <v>4</v>
-      </c>
-      <c r="E133" t="s">
-        <v>277</v>
-      </c>
-      <c r="F133"/>
-      <c r="G133" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>271</v>
-      </c>
-      <c r="B134" t="s">
-        <v>286</v>
-      </c>
-      <c r="C134" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134">
-        <v>5</v>
       </c>
       <c r="E134" t="s">
         <v>278</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B135" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
       </c>
       <c r="D135">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F135"/>
       <c r="G135" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B136" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
       </c>
       <c r="D136">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E136" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>266</v>
+      </c>
+      <c r="B137" t="s">
+        <v>279</v>
+      </c>
+      <c r="C137" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+      <c r="E137" t="s">
         <v>271</v>
-      </c>
-      <c r="B137" t="s">
-        <v>289</v>
-      </c>
-      <c r="C137" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137">
-        <v>8</v>
-      </c>
-      <c r="E137" t="s">
-        <v>281</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B138" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
       </c>
       <c r="D138">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E138" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="F138"/>
       <c r="G138" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B139" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
       </c>
       <c r="D139">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E139" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B140" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
       </c>
       <c r="D140">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E140" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="F140"/>
       <c r="G140" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>266</v>
+      </c>
+      <c r="B141" t="s">
+        <v>283</v>
+      </c>
+      <c r="C141" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141">
+        <v>7</v>
+      </c>
+      <c r="E141" t="s">
+        <v>275</v>
+      </c>
+      <c r="F141"/>
+      <c r="G141" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>266</v>
+      </c>
+      <c r="B142" t="s">
+        <v>284</v>
+      </c>
+      <c r="C142" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142">
+        <v>8</v>
+      </c>
+      <c r="E142" t="s">
+        <v>276</v>
+      </c>
+      <c r="F142"/>
+      <c r="G142" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>266</v>
+      </c>
+      <c r="B143" t="s">
+        <v>285</v>
+      </c>
+      <c r="C143" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143">
+        <v>9</v>
+      </c>
+      <c r="E143" t="s">
+        <v>297</v>
+      </c>
+      <c r="F143"/>
+      <c r="G143" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>266</v>
+      </c>
+      <c r="B144" t="s">
+        <v>286</v>
+      </c>
+      <c r="C144" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144">
+        <v>10</v>
+      </c>
+      <c r="E144" t="s">
+        <v>298</v>
+      </c>
+      <c r="F144"/>
+      <c r="G144" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>266</v>
+      </c>
+      <c r="B145" t="s">
+        <v>287</v>
+      </c>
+      <c r="C145" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145">
+        <v>11</v>
+      </c>
+      <c r="E145" t="s">
+        <v>299</v>
+      </c>
+      <c r="F145"/>
+      <c r="G145" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="3">
+        <v>0</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F146" s="3"/>
+      <c r="G146" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="3">
+        <v>1</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="3">
+        <v>2</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B149" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" s="3">
-        <v>0</v>
-      </c>
-      <c r="E141" s="3" t="s">
+      <c r="C149" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="3">
+        <v>3</v>
+      </c>
+      <c r="E149" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="F141" s="3"/>
-      <c r="G141" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" s="3">
-        <v>1</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="H142"/>
-      <c r="I142"/>
-      <c r="J142"/>
-      <c r="K142"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143" s="3">
-        <v>2</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F143" s="3"/>
-      <c r="G143" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="H143"/>
-      <c r="I143"/>
-      <c r="J143"/>
-      <c r="K143"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="B144" s="3" t="s">
+      <c r="F149" s="3"/>
+      <c r="G149" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D144" s="3">
-        <v>3</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="H144"/>
-      <c r="I144"/>
-      <c r="J144"/>
-      <c r="K144"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145"/>
-      <c r="B145"/>
-      <c r="C145"/>
-      <c r="D145"/>
-      <c r="E145"/>
-      <c r="F145"/>
-      <c r="G145"/>
-      <c r="H145"/>
-      <c r="I145"/>
-      <c r="J145"/>
-      <c r="K145"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146"/>
-      <c r="B146"/>
-      <c r="C146"/>
-      <c r="D146"/>
-      <c r="E146"/>
-      <c r="F146"/>
-      <c r="G146"/>
-      <c r="H146"/>
-      <c r="I146"/>
-      <c r="J146"/>
-      <c r="K146"/>
-    </row>
-    <row r="147" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="G147" s="5"/>
-    </row>
-    <row r="148" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="G148" s="5"/>
-    </row>
-    <row r="149" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="G149" s="5"/>
-    </row>
-    <row r="150" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="G150" s="5"/>
-    </row>
-    <row r="151" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="G151" s="5"/>
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150"/>
+      <c r="B150"/>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150"/>
+      <c r="H150"/>
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151"/>
+      <c r="B151"/>
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151"/>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151"/>
     </row>
     <row r="152" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="G152" s="5"/>
+    </row>
+    <row r="153" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G153" s="5"/>
+    </row>
+    <row r="154" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G154" s="5"/>
+    </row>
+    <row r="155" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G155" s="5"/>
+    </row>
+    <row r="156" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G156" s="5"/>
+    </row>
+    <row r="157" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G157" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/程序用_正式版_基础版/Scenes.xlsx
+++ b/程序用_正式版_基础版/Scenes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfire_config_table\程序用_正式版_基础版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254BAF0A-4075-4326-BAEF-CBE8E18C6A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35A3D13-E05E-48B7-8E3F-7FD6F4CEEFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="330" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="1710" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@Types" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="400">
   <si>
     <t>ObjectType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,143 +243,22 @@
     <t>ElementType</t>
   </si>
   <si>
-    <t>OilBarrel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>油桶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PoisonBarrel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>毒桶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次要技能点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HealthPack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EnemyType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>药瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要技能点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ElementType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>E13</t>
-  </si>
-  <si>
-    <t>E14</t>
-  </si>
-  <si>
-    <t>E15</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>MajorSkill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MinorSkill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹1号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹2号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹3号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
@@ -409,28 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E16</t>
-  </si>
-  <si>
-    <t>E17</t>
-  </si>
-  <si>
-    <t>DamageableBullet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageableGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageableHealth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageableSkill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AbilityType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -835,14 +692,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ironsmith</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardDoor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>传送门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -966,21 +815,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Explosive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E18</t>
-  </si>
-  <si>
-    <t>SpawnEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出现特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -995,13 +829,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DeathEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E20</t>
-  </si>
-  <si>
     <t>死亡特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1056,21 +883,6 @@
     <t>房间2_8</t>
   </si>
   <si>
-    <t>魂石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E21</t>
-  </si>
-  <si>
     <t>体力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1422,31 +1234,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AbilityChest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E22</t>
-  </si>
-  <si>
     <t>能力宝箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HealthPackSmall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HealthPackBig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E23</t>
-  </si>
-  <si>
-    <t>E24</t>
-  </si>
-  <si>
     <t>药瓶(小)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1455,20 +1246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DamageableHealthSmall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageableHealthBig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E25</t>
-  </si>
-  <si>
-    <t>E26</t>
-  </si>
-  <si>
     <t>可破坏物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1492,13 +1269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GoldBig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E27</t>
-  </si>
-  <si>
     <t>金币(大)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1512,36 +1282,9 @@
     <t>可能是空罐子3号</t>
   </si>
   <si>
-    <t>子弹补充罐</t>
-  </si>
-  <si>
     <t>高级子弹罐</t>
   </si>
   <si>
-    <t>DamageableHealth2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageableBullet2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageableAll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E28</t>
-  </si>
-  <si>
-    <t>E29</t>
-  </si>
-  <si>
-    <t>E30</t>
-  </si>
-  <si>
-    <t>E31</t>
-  </si>
-  <si>
     <t>高级血包罐</t>
   </si>
   <si>
@@ -1556,11 +1299,218 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>盛宴掉落罐，必定掉落子弹+血包+金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageableGold2</t>
+    <t>金币(小)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通子弹1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊子弹2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛宴掉落罐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药瓶(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E102</t>
+  </si>
+  <si>
+    <t>E103</t>
+  </si>
+  <si>
+    <t>E104</t>
+  </si>
+  <si>
+    <t>E105</t>
+  </si>
+  <si>
+    <t>E106</t>
+  </si>
+  <si>
+    <t>E200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E201</t>
+  </si>
+  <si>
+    <t>E302</t>
+  </si>
+  <si>
+    <t>E303</t>
+  </si>
+  <si>
+    <t>E304</t>
+  </si>
+  <si>
+    <t>E305</t>
+  </si>
+  <si>
+    <t>E306</t>
+  </si>
+  <si>
+    <t>E307</t>
+  </si>
+  <si>
+    <t>E402</t>
+  </si>
+  <si>
+    <t>E403</t>
+  </si>
+  <si>
+    <t>E404</t>
+  </si>
+  <si>
+    <t>E405</t>
+  </si>
+  <si>
+    <t>E406</t>
+  </si>
+  <si>
+    <t>E407</t>
+  </si>
+  <si>
+    <t>E408</t>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹罐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E107</t>
+  </si>
+  <si>
+    <t>E401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E409</t>
+  </si>
+  <si>
+    <t>TrapOilBarrel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrapPoisonBarrel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropGold1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropGold2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropBullet1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropBullet2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropHealthPack1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropHealthPack2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropHealthPack3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPRewardDoor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPIronsmith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPExplosive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPSpawnEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPDeathEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPAbilityChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageRandom2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageRandom1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageRandom3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageBullet1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageHealth1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageBullet2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageHealth2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageGold1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageAll</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2071,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K157"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2087,12 +2037,12 @@
     <col min="9" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2115,7 +2065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2137,10 +2087,13 @@
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
@@ -2152,19 +2105,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -2173,19 +2126,19 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -2194,19 +2147,19 @@
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
@@ -2215,19 +2168,19 @@
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
@@ -2236,19 +2189,19 @@
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
@@ -2257,19 +2210,19 @@
         <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>14</v>
@@ -2278,19 +2231,19 @@
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>14</v>
@@ -2299,19 +2252,19 @@
         <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>14</v>
@@ -2320,19 +2273,19 @@
         <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>14</v>
@@ -2341,14 +2294,14 @@
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2367,12 +2320,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -2383,10 +2336,10 @@
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2410,7 +2363,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -2421,7 +2374,7 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2429,7 +2382,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -2440,7 +2393,7 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2448,7 +2401,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -2459,7 +2412,7 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2467,7 +2420,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -2478,7 +2431,7 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2486,7 +2439,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -2497,7 +2450,7 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2505,7 +2458,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -2516,7 +2469,7 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2524,7 +2477,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -2535,7 +2488,7 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2543,7 +2496,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -2554,7 +2507,7 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2562,7 +2515,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -2573,7 +2526,7 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2590,14 +2543,14 @@
         <v>0</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>37</v>
+        <v>346</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>19</v>
+        <v>367</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>17</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2605,47 +2558,47 @@
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>197</v>
+        <v>384</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="3">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>38</v>
+        <v>371</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>196</v>
+        <v>385</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="3">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>48</v>
+        <v>347</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2653,23 +2606,23 @@
         <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>72</v>
+        <v>386</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="3">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>49</v>
+        <v>348</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2677,23 +2630,23 @@
         <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>73</v>
+        <v>387</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="3">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>50</v>
+        <v>349</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>398</v>
+        <v>192</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2701,23 +2654,23 @@
         <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>74</v>
+        <v>388</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="3">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>39</v>
+        <v>350</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>399</v>
+        <v>196</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2725,23 +2678,23 @@
         <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>75</v>
+        <v>389</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="3">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>400</v>
+        <v>213</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2749,23 +2702,23 @@
         <v>22</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>23</v>
+        <v>390</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="3">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>41</v>
+        <v>372</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>24</v>
+        <v>323</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>392</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2773,23 +2726,23 @@
         <v>22</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>25</v>
+        <v>375</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="3">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>42</v>
+        <v>352</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>392</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2797,23 +2750,23 @@
         <v>22</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>27</v>
+        <v>376</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="3">
-        <v>9</v>
+        <v>201</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>43</v>
+        <v>353</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>391</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2821,23 +2774,23 @@
         <v>22</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>262</v>
+        <v>377</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="3">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>44</v>
+        <v>370</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>261</v>
+        <v>341</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>390</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2845,23 +2798,23 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>28</v>
+        <v>378</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="3">
-        <v>11</v>
+        <v>302</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>51</v>
+        <v>354</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>30</v>
+        <v>332</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2869,23 +2822,23 @@
         <v>22</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>55</v>
+        <v>379</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="3">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>52</v>
+        <v>355</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2893,23 +2846,23 @@
         <v>22</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>56</v>
+        <v>380</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="3">
-        <v>13</v>
+        <v>304</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>59</v>
+        <v>343</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2917,23 +2870,23 @@
         <v>22</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>57</v>
+        <v>381</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="3">
-        <v>14</v>
+        <v>305</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>46</v>
+        <v>357</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>60</v>
+        <v>324</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2941,23 +2894,23 @@
         <v>22</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>32</v>
+        <v>382</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="3">
-        <v>15</v>
+        <v>306</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>47</v>
+        <v>358</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>34</v>
+        <v>345</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2965,23 +2918,23 @@
         <v>22</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>53</v>
+        <v>383</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="3">
-        <v>16</v>
+        <v>307</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>70</v>
+        <v>359</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>35</v>
+        <v>325</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2989,23 +2942,23 @@
         <v>22</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>54</v>
+        <v>392</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="3">
-        <v>17</v>
+        <v>401</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>71</v>
+        <v>373</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>31</v>
+        <v>333</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>390</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3013,23 +2966,23 @@
         <v>22</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>234</v>
+        <v>391</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="3">
-        <v>18</v>
+        <v>402</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>235</v>
+        <v>360</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>393</v>
+        <v>334</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3037,23 +2990,23 @@
         <v>22</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>236</v>
+        <v>393</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="3">
-        <v>19</v>
+        <v>403</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>237</v>
+        <v>361</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>238</v>
+        <v>335</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3061,23 +3014,23 @@
         <v>22</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>242</v>
+        <v>394</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="3">
-        <v>20</v>
+        <v>404</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>243</v>
+        <v>362</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>244</v>
+        <v>368</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3085,23 +3038,23 @@
         <v>22</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>263</v>
+        <v>395</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="3">
-        <v>21</v>
+        <v>405</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>264</v>
+        <v>363</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3109,23 +3062,23 @@
         <v>22</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="3">
-        <v>22</v>
+        <v>406</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3133,23 +3086,23 @@
         <v>22</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="3">
-        <v>23</v>
+        <v>407</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3157,23 +3110,23 @@
         <v>22</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="3">
-        <v>24</v>
+        <v>408</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3181,583 +3134,577 @@
         <v>22</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="3">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>411</v>
+        <v>344</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="3">
-        <v>26</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>388</v>
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="3">
-        <v>27</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>390</v>
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53">
+        <v>10001</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G53" t="s">
+        <v>176</v>
+      </c>
+      <c r="H53" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="3">
-        <v>28</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>410</v>
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>10002</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G54" t="s">
+        <v>277</v>
+      </c>
+      <c r="H54" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="3">
-        <v>29</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>410</v>
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55">
+        <v>10003</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G55" t="s">
+        <v>278</v>
+      </c>
+      <c r="H55" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="3">
-        <v>30</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>410</v>
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56">
+        <v>10004</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G56" t="s">
+        <v>279</v>
+      </c>
+      <c r="H56" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="3">
-        <v>31</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>410</v>
+      <c r="A57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57">
+        <v>10005</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G57" t="s">
+        <v>280</v>
+      </c>
+      <c r="H57" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>10006</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>19</v>
+        <v>253</v>
+      </c>
+      <c r="G58" t="s">
+        <v>281</v>
+      </c>
+      <c r="H58" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
       </c>
       <c r="D59">
-        <v>10001</v>
+        <v>10007</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>373</v>
+        <v>254</v>
+      </c>
+      <c r="G59" t="s">
+        <v>282</v>
+      </c>
+      <c r="H59" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
       <c r="D60">
-        <v>10002</v>
+        <v>10008</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>373</v>
+        <v>255</v>
+      </c>
+      <c r="G60" t="s">
+        <v>283</v>
+      </c>
+      <c r="H60" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
       </c>
       <c r="D61">
-        <v>10003</v>
+        <v>10009</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>373</v>
+        <v>256</v>
+      </c>
+      <c r="G61" t="s">
+        <v>284</v>
+      </c>
+      <c r="H61" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
       </c>
       <c r="D62">
-        <v>10004</v>
+        <v>10010</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>373</v>
+        <v>257</v>
+      </c>
+      <c r="G62" t="s">
+        <v>285</v>
+      </c>
+      <c r="H62" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
       </c>
       <c r="D63">
-        <v>10005</v>
+        <v>10011</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>373</v>
+        <v>258</v>
+      </c>
+      <c r="G63" t="s">
+        <v>286</v>
+      </c>
+      <c r="H63" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="D64">
-        <v>10006</v>
+        <v>10012</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>373</v>
+        <v>259</v>
+      </c>
+      <c r="G64" t="s">
+        <v>287</v>
+      </c>
+      <c r="H64" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
       </c>
       <c r="D65">
-        <v>10007</v>
+        <v>10013</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>373</v>
+        <v>315</v>
+      </c>
+      <c r="G65" t="s">
+        <v>317</v>
+      </c>
+      <c r="H65" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
       </c>
       <c r="D66">
-        <v>10008</v>
+        <v>20001</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>373</v>
+        <v>260</v>
+      </c>
+      <c r="G66" t="s">
+        <v>179</v>
+      </c>
+      <c r="H66" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67">
-        <v>10009</v>
+        <v>20002</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>373</v>
+        <v>261</v>
+      </c>
+      <c r="G67" t="s">
+        <v>295</v>
+      </c>
+      <c r="H67" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
       <c r="D68">
-        <v>10010</v>
+        <v>20003</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>373</v>
+        <v>262</v>
+      </c>
+      <c r="G68" t="s">
+        <v>294</v>
+      </c>
+      <c r="H68" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
       </c>
       <c r="D69">
-        <v>10011</v>
+        <v>20004</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>373</v>
+        <v>263</v>
+      </c>
+      <c r="G69" t="s">
+        <v>288</v>
+      </c>
+      <c r="H69" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
       </c>
       <c r="D70">
-        <v>10012</v>
+        <v>20005</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>373</v>
+        <v>264</v>
+      </c>
+      <c r="G70" t="s">
+        <v>289</v>
+      </c>
+      <c r="H70" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>367</v>
+        <v>265</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71">
-        <v>10013</v>
+        <v>20006</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>373</v>
+        <v>265</v>
+      </c>
+      <c r="G71" t="s">
+        <v>178</v>
+      </c>
+      <c r="H71" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72">
-        <v>20001</v>
+        <v>20007</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="G72" t="s">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="H72" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73">
-        <v>20002</v>
+        <v>20008</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="G73" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="H73" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
       </c>
       <c r="D74">
-        <v>20003</v>
+        <v>20009</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="G74" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="H74" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
       </c>
       <c r="D75">
-        <v>20004</v>
+        <v>20010</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="G75" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="H75" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>316</v>
@@ -3766,1663 +3713,1525 @@
         <v>14</v>
       </c>
       <c r="D76">
-        <v>20005</v>
+        <v>20011</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>316</v>
       </c>
       <c r="G76" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="H76" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
       </c>
       <c r="D77">
-        <v>20006</v>
+        <v>30001</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="G77" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="H77" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
       </c>
       <c r="D78">
-        <v>20007</v>
+        <v>30002</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
       <c r="G78" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
       <c r="H78" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79">
+        <v>30003</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G79" t="s">
+        <v>298</v>
+      </c>
+      <c r="H79" t="s">
         <v>319</v>
-      </c>
-      <c r="C79" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79">
-        <v>20008</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="G79" t="s">
-        <v>342</v>
-      </c>
-      <c r="H79" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
       </c>
       <c r="D80">
-        <v>20009</v>
+        <v>30004</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="G80" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="H80" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
       </c>
       <c r="D81">
-        <v>20010</v>
+        <v>30005</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="G81" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="H81" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>368</v>
+        <v>293</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
       </c>
       <c r="D82">
-        <v>20011</v>
+        <v>30006</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>368</v>
+        <v>293</v>
       </c>
       <c r="G82" t="s">
-        <v>370</v>
+        <v>301</v>
       </c>
       <c r="H82" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="D83">
-        <v>30001</v>
+        <v>40001</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>371</v>
+        <v>275</v>
+      </c>
+      <c r="G83" t="s">
+        <v>302</v>
+      </c>
+      <c r="H83" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
       </c>
       <c r="D84">
-        <v>30002</v>
+        <v>40002</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>371</v>
+        <v>276</v>
+      </c>
+      <c r="G84" t="s">
+        <v>303</v>
+      </c>
+      <c r="H84" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>33</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C85" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85">
-        <v>30003</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>324</v>
-      </c>
+      <c r="A85" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F85" s="3"/>
       <c r="G85" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>371</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>33</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86">
-        <v>30004</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>325</v>
-      </c>
+      <c r="A86" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="3">
+        <v>1</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F86" s="3"/>
       <c r="G86" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>371</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="H86"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>33</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C87" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87">
-        <v>30005</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>326</v>
-      </c>
+      <c r="A87" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="3">
+        <v>2</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F87" s="3"/>
       <c r="G87" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>371</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="H87"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>33</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C88" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88">
-        <v>30006</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>345</v>
-      </c>
+      <c r="A88" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="3">
+        <v>3</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" s="3"/>
       <c r="G88" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>371</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="H88"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>33</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C89" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89">
-        <v>40001</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="G89" t="s">
-        <v>354</v>
-      </c>
-      <c r="H89" t="s">
-        <v>372</v>
+      <c r="A89" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="3">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>33</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C90" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90">
-        <v>40002</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="G90" t="s">
-        <v>355</v>
-      </c>
-      <c r="H90" t="s">
-        <v>372</v>
+      <c r="A90" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="3">
+        <v>5</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="H91"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="H92"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="H93"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="H94"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3" t="s">
-        <v>158</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="H95"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3" t="s">
-        <v>159</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="H96"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="H97"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="H98"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="H99"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="H100"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="3">
+        <v>16</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="3">
-        <v>10</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="H101"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="H102"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="H103"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="H104"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="H105"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="H106"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="H107"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="H108"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="H109"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="3">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="H110"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="3">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="H111"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="F112" s="3"/>
-      <c r="G112" s="3" t="s">
-        <v>160</v>
+      <c r="G112" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="H112"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="F113" s="3"/>
-      <c r="G113" s="3" t="s">
-        <v>161</v>
+      <c r="G113" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="H113"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="F114" s="3"/>
-      <c r="G114" s="3" t="s">
-        <v>162</v>
+      <c r="G114" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="H114"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="F115" s="3"/>
-      <c r="G115" s="3" t="s">
-        <v>163</v>
+      <c r="G115" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="H115"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D116" s="3">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="F116" s="3"/>
-      <c r="G116" s="3" t="s">
-        <v>164</v>
+      <c r="G116" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="H116"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="3">
-        <v>26</v>
+        <v>1001</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H117"/>
+        <v>106</v>
+      </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="3">
-        <v>27</v>
+        <v>1002</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="F118" s="3"/>
-      <c r="G118" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H118"/>
+      <c r="G118" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="3">
-        <v>28</v>
+        <v>1003</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="F119" s="3"/>
-      <c r="G119" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H119"/>
+      <c r="G119" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>224</v>
+        <v>91</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="3">
-        <v>29</v>
+        <v>1004</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c r="F120" s="3"/>
-      <c r="G120" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H120"/>
+      <c r="G120" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>225</v>
+        <v>92</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="3">
-        <v>30</v>
+        <v>1005</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="F121" s="3"/>
-      <c r="G121" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H121"/>
+      <c r="G121" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>239</v>
+        <v>93</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="3">
-        <v>31</v>
+        <v>1006</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="F122" s="3"/>
-      <c r="G122" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H122"/>
+      <c r="G122" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="3">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D124" s="3">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="3">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="3">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3" t="s">
-        <v>182</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="3">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" s="3">
-        <v>1006</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" s="3">
-        <v>1007</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D130" s="3">
-        <v>1008</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131" s="3">
-        <v>1009</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" s="3">
-        <v>1010</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133" s="3">
-        <v>1011</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>214</v>
+      </c>
+      <c r="B128" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>226</v>
+      </c>
+      <c r="F128"/>
+      <c r="G128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>214</v>
+      </c>
+      <c r="B129" t="s">
+        <v>215</v>
+      </c>
+      <c r="C129" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>217</v>
+      </c>
+      <c r="F129"/>
+      <c r="G129" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>214</v>
+      </c>
+      <c r="B130" t="s">
+        <v>216</v>
+      </c>
+      <c r="C130" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130" t="s">
+        <v>218</v>
+      </c>
+      <c r="F130"/>
+      <c r="G130" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>214</v>
+      </c>
+      <c r="B131" t="s">
+        <v>227</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+      <c r="E131" t="s">
+        <v>219</v>
+      </c>
+      <c r="F131"/>
+      <c r="G131" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>214</v>
+      </c>
+      <c r="B132" t="s">
+        <v>228</v>
+      </c>
+      <c r="C132" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132">
+        <v>4</v>
+      </c>
+      <c r="E132" t="s">
+        <v>220</v>
+      </c>
+      <c r="F132"/>
+      <c r="G132" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>214</v>
+      </c>
+      <c r="B133" t="s">
+        <v>229</v>
+      </c>
+      <c r="C133" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+      <c r="E133" t="s">
+        <v>221</v>
+      </c>
+      <c r="F133"/>
+      <c r="G133" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>230</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E134" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="B135" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E135" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="F135"/>
       <c r="G135" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="B136" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E136" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="B137" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="B138" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
       </c>
       <c r="D138">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="F138"/>
       <c r="G138" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="B139" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
       </c>
       <c r="D139">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>266</v>
-      </c>
-      <c r="B140" t="s">
-        <v>282</v>
-      </c>
-      <c r="C140" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140">
-        <v>6</v>
-      </c>
-      <c r="E140" t="s">
-        <v>274</v>
-      </c>
-      <c r="F140"/>
-      <c r="G140" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>266</v>
-      </c>
-      <c r="B141" t="s">
-        <v>283</v>
-      </c>
-      <c r="C141" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141">
-        <v>7</v>
-      </c>
-      <c r="E141" t="s">
-        <v>275</v>
-      </c>
-      <c r="F141"/>
-      <c r="G141" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>266</v>
-      </c>
-      <c r="B142" t="s">
-        <v>284</v>
-      </c>
-      <c r="C142" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142">
-        <v>8</v>
-      </c>
-      <c r="E142" t="s">
-        <v>276</v>
-      </c>
-      <c r="F142"/>
-      <c r="G142" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>266</v>
-      </c>
-      <c r="B143" t="s">
-        <v>285</v>
-      </c>
-      <c r="C143" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143">
-        <v>9</v>
-      </c>
-      <c r="E143" t="s">
-        <v>297</v>
-      </c>
-      <c r="F143"/>
-      <c r="G143" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>266</v>
-      </c>
-      <c r="B144" t="s">
-        <v>286</v>
-      </c>
-      <c r="C144" t="s">
-        <v>14</v>
-      </c>
-      <c r="D144">
-        <v>10</v>
-      </c>
-      <c r="E144" t="s">
-        <v>298</v>
-      </c>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" s="3">
+        <v>0</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F140" s="3"/>
+      <c r="G140" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="3">
+        <v>1</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="3">
+        <v>2</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="3">
+        <v>3</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H143"/>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144"/>
+      <c r="B144"/>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
       <c r="F144"/>
-      <c r="G144" t="s">
-        <v>295</v>
-      </c>
+      <c r="G144"/>
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>266</v>
-      </c>
-      <c r="B145" t="s">
-        <v>287</v>
-      </c>
-      <c r="C145" t="s">
-        <v>14</v>
-      </c>
-      <c r="D145">
-        <v>11</v>
-      </c>
-      <c r="E145" t="s">
-        <v>299</v>
-      </c>
+      <c r="A145"/>
+      <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
       <c r="F145"/>
-      <c r="G145" t="s">
-        <v>296</v>
-      </c>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
     </row>
     <row r="146" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" s="3">
-        <v>0</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F146" s="3"/>
-      <c r="G146" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D147" s="3">
-        <v>1</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="H147"/>
-      <c r="I147"/>
-      <c r="J147"/>
-      <c r="K147"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D148" s="3">
-        <v>2</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="H148"/>
-      <c r="I148"/>
-      <c r="J148"/>
-      <c r="K148"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D149" s="3">
-        <v>3</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H149"/>
-      <c r="I149"/>
-      <c r="J149"/>
-      <c r="K149"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150"/>
-      <c r="B150"/>
-      <c r="C150"/>
-      <c r="D150"/>
-      <c r="E150"/>
-      <c r="F150"/>
-      <c r="G150"/>
-      <c r="H150"/>
-      <c r="I150"/>
-      <c r="J150"/>
-      <c r="K150"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151"/>
-      <c r="B151"/>
-      <c r="C151"/>
-      <c r="D151"/>
-      <c r="E151"/>
-      <c r="F151"/>
-      <c r="G151"/>
-      <c r="H151"/>
-      <c r="I151"/>
-      <c r="J151"/>
-      <c r="K151"/>
-    </row>
-    <row r="152" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="G152" s="5"/>
-    </row>
-    <row r="153" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="G153" s="5"/>
-    </row>
-    <row r="154" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="G154" s="5"/>
-    </row>
-    <row r="155" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="G155" s="5"/>
-    </row>
-    <row r="156" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="G156" s="5"/>
-    </row>
-    <row r="157" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="G157" s="5"/>
+      <c r="G146" s="5"/>
+    </row>
+    <row r="147" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G147" s="5"/>
+    </row>
+    <row r="148" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G148" s="5"/>
+    </row>
+    <row r="149" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G149" s="5"/>
+    </row>
+    <row r="150" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G150" s="5"/>
+    </row>
+    <row r="151" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G151" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/程序用_正式版_基础版/Scenes.xlsx
+++ b/程序用_正式版_基础版/Scenes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfire_config_table\程序用_正式版_基础版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35A3D13-E05E-48B7-8E3F-7FD6F4CEEFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE11111-C991-4ADC-911F-E2AF7E91237C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1710" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="1110" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@Types" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="403">
   <si>
     <t>ObjectType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1511,6 +1511,17 @@
   </si>
   <si>
     <t>DamageAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E108</t>
+  </si>
+  <si>
+    <t>钻石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2021,10 +2032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2726,23 +2737,23 @@
         <v>22</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="3">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>23</v>
+        <v>402</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2750,20 +2761,20 @@
         <v>22</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>330</v>
@@ -2774,23 +2785,23 @@
         <v>22</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="3">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>341</v>
+        <v>24</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2798,23 +2809,23 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="3">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2822,20 +2833,20 @@
         <v>22</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="3">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>328</v>
@@ -2846,20 +2857,20 @@
         <v>22</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="3">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>328</v>
@@ -2870,20 +2881,20 @@
         <v>22</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="3">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>328</v>
@@ -2894,20 +2905,20 @@
         <v>22</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="3">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>328</v>
@@ -2918,20 +2929,20 @@
         <v>22</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="3">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>328</v>
@@ -2942,23 +2953,23 @@
         <v>22</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="3">
-        <v>401</v>
+        <v>307</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2966,20 +2977,20 @@
         <v>22</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="3">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>326</v>
@@ -2990,20 +3001,20 @@
         <v>22</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="3">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>326</v>
@@ -3014,20 +3025,20 @@
         <v>22</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="3">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>326</v>
@@ -3038,20 +3049,20 @@
         <v>22</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="3">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>326</v>
@@ -3062,20 +3073,20 @@
         <v>22</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="3">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>326</v>
@@ -3086,23 +3097,23 @@
         <v>22</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="3">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3110,20 +3121,20 @@
         <v>22</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="3">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>338</v>
@@ -3134,43 +3145,47 @@
         <v>22</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="3">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>19</v>
+      <c r="A52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="3">
+        <v>409</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3178,22 +3193,19 @@
         <v>25</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>248</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
       </c>
       <c r="D53">
-        <v>10001</v>
+        <v>0</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="G53" t="s">
-        <v>176</v>
-      </c>
-      <c r="H53" t="s">
-        <v>321</v>
+        <v>17</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3201,19 +3213,19 @@
         <v>25</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
       </c>
       <c r="D54">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G54" t="s">
-        <v>277</v>
+        <v>176</v>
       </c>
       <c r="H54" t="s">
         <v>321</v>
@@ -3224,19 +3236,19 @@
         <v>25</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
       </c>
       <c r="D55">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H55" t="s">
         <v>321</v>
@@ -3247,19 +3259,19 @@
         <v>25</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
       </c>
       <c r="D56">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H56" t="s">
         <v>321</v>
@@ -3270,19 +3282,19 @@
         <v>25</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
       </c>
       <c r="D57">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G57" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H57" t="s">
         <v>321</v>
@@ -3293,19 +3305,19 @@
         <v>25</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
       </c>
       <c r="D58">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H58" t="s">
         <v>321</v>
@@ -3316,19 +3328,19 @@
         <v>25</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
       </c>
       <c r="D59">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H59" t="s">
         <v>321</v>
@@ -3339,19 +3351,19 @@
         <v>25</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
       <c r="D60">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G60" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H60" t="s">
         <v>321</v>
@@ -3362,19 +3374,19 @@
         <v>25</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
       </c>
       <c r="D61">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G61" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H61" t="s">
         <v>321</v>
@@ -3385,19 +3397,19 @@
         <v>25</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
       </c>
       <c r="D62">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H62" t="s">
         <v>321</v>
@@ -3408,19 +3420,19 @@
         <v>25</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
       </c>
       <c r="D63">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G63" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H63" t="s">
         <v>321</v>
@@ -3431,19 +3443,19 @@
         <v>25</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="D64">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G64" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H64" t="s">
         <v>321</v>
@@ -3454,19 +3466,19 @@
         <v>25</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
       </c>
       <c r="D65">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="G65" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="H65" t="s">
         <v>321</v>
@@ -3477,22 +3489,22 @@
         <v>25</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
       </c>
       <c r="D66">
-        <v>20001</v>
+        <v>10013</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="G66" t="s">
-        <v>179</v>
+        <v>317</v>
       </c>
       <c r="H66" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3500,19 +3512,19 @@
         <v>25</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G67" t="s">
-        <v>295</v>
+        <v>179</v>
       </c>
       <c r="H67" t="s">
         <v>322</v>
@@ -3523,19 +3535,19 @@
         <v>25</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
       <c r="D68">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G68" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H68" t="s">
         <v>322</v>
@@ -3546,19 +3558,19 @@
         <v>25</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
       </c>
       <c r="D69">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G69" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H69" t="s">
         <v>322</v>
@@ -3569,19 +3581,19 @@
         <v>25</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
       </c>
       <c r="D70">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G70" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H70" t="s">
         <v>322</v>
@@ -3592,19 +3604,19 @@
         <v>25</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71">
-        <v>20006</v>
+        <v>20005</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G71" t="s">
-        <v>178</v>
+        <v>289</v>
       </c>
       <c r="H71" t="s">
         <v>322</v>
@@ -3615,19 +3627,19 @@
         <v>25</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72">
-        <v>20007</v>
+        <v>20006</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G72" t="s">
-        <v>296</v>
+        <v>178</v>
       </c>
       <c r="H72" t="s">
         <v>322</v>
@@ -3638,19 +3650,19 @@
         <v>25</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73">
-        <v>20008</v>
+        <v>20007</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G73" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H73" t="s">
         <v>322</v>
@@ -3661,19 +3673,19 @@
         <v>25</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
       </c>
       <c r="D74">
-        <v>20009</v>
+        <v>20008</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G74" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H74" t="s">
         <v>322</v>
@@ -3684,19 +3696,19 @@
         <v>25</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
       </c>
       <c r="D75">
-        <v>20010</v>
+        <v>20009</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H75" t="s">
         <v>322</v>
@@ -3707,19 +3719,19 @@
         <v>25</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
       </c>
       <c r="D76">
-        <v>20011</v>
+        <v>20010</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="G76" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="H76" t="s">
         <v>322</v>
@@ -3730,22 +3742,22 @@
         <v>25</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
       </c>
       <c r="D77">
-        <v>30001</v>
+        <v>20011</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="G77" t="s">
-        <v>177</v>
+        <v>318</v>
       </c>
       <c r="H77" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3753,19 +3765,19 @@
         <v>25</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
       </c>
       <c r="D78">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G78" t="s">
-        <v>297</v>
+        <v>177</v>
       </c>
       <c r="H78" t="s">
         <v>319</v>
@@ -3776,19 +3788,19 @@
         <v>25</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
       </c>
       <c r="D79">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H79" t="s">
         <v>319</v>
@@ -3799,19 +3811,19 @@
         <v>25</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
       </c>
       <c r="D80">
-        <v>30004</v>
+        <v>30003</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H80" t="s">
         <v>319</v>
@@ -3822,19 +3834,19 @@
         <v>25</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
       </c>
       <c r="D81">
-        <v>30005</v>
+        <v>30004</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G81" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H81" t="s">
         <v>319</v>
@@ -3845,19 +3857,19 @@
         <v>25</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
       </c>
       <c r="D82">
-        <v>30006</v>
+        <v>30005</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="G82" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H82" t="s">
         <v>319</v>
@@ -3868,22 +3880,22 @@
         <v>25</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="D83">
-        <v>40001</v>
+        <v>30006</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="G83" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H83" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3891,43 +3903,45 @@
         <v>25</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
       </c>
       <c r="D84">
-        <v>40002</v>
+        <v>40001</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G84" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H84" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="3">
-        <v>0</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3" t="s">
-        <v>17</v>
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85">
+        <v>40002</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G85" t="s">
+        <v>303</v>
+      </c>
+      <c r="H85" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3935,42 +3949,41 @@
         <v>36</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H86"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H87"/>
     </row>
@@ -3979,20 +3992,20 @@
         <v>36</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H88"/>
     </row>
@@ -4001,41 +4014,42 @@
         <v>36</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3" t="s">
-        <v>118</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="H89"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4043,42 +4057,41 @@
         <v>36</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H91"/>
+        <v>119</v>
+      </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H92"/>
     </row>
@@ -4087,20 +4100,20 @@
         <v>36</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H93"/>
     </row>
@@ -4109,20 +4122,20 @@
         <v>36</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H94"/>
     </row>
@@ -4131,20 +4144,20 @@
         <v>36</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H95"/>
     </row>
@@ -4153,20 +4166,20 @@
         <v>36</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H96"/>
     </row>
@@ -4175,20 +4188,20 @@
         <v>36</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="H97"/>
     </row>
@@ -4197,20 +4210,20 @@
         <v>36</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H98"/>
     </row>
@@ -4219,20 +4232,20 @@
         <v>36</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H99"/>
     </row>
@@ -4241,20 +4254,20 @@
         <v>36</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H100"/>
     </row>
@@ -4263,20 +4276,20 @@
         <v>36</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H101"/>
     </row>
@@ -4285,20 +4298,20 @@
         <v>36</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H102"/>
     </row>
@@ -4307,20 +4320,20 @@
         <v>36</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H103"/>
     </row>
@@ -4329,20 +4342,20 @@
         <v>36</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H104"/>
     </row>
@@ -4351,20 +4364,20 @@
         <v>36</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H105"/>
     </row>
@@ -4373,20 +4386,20 @@
         <v>36</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H106"/>
     </row>
@@ -4395,20 +4408,20 @@
         <v>36</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H107"/>
     </row>
@@ -4417,20 +4430,20 @@
         <v>36</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H108"/>
     </row>
@@ -4439,20 +4452,20 @@
         <v>36</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H109"/>
     </row>
@@ -4461,20 +4474,20 @@
         <v>36</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H110"/>
     </row>
@@ -4483,20 +4496,20 @@
         <v>36</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H111"/>
     </row>
@@ -4505,20 +4518,20 @@
         <v>36</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>184</v>
+        <v>86</v>
       </c>
       <c r="F112" s="3"/>
-      <c r="G112" s="7" t="s">
-        <v>188</v>
+      <c r="G112" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="H112"/>
     </row>
@@ -4527,20 +4540,20 @@
         <v>36</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H113"/>
     </row>
@@ -4549,20 +4562,20 @@
         <v>36</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H114"/>
     </row>
@@ -4571,20 +4584,20 @@
         <v>36</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H115"/>
     </row>
@@ -4593,20 +4606,20 @@
         <v>36</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D116" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H116"/>
     </row>
@@ -4615,41 +4628,42 @@
         <v>36</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="3">
-        <v>1001</v>
+        <v>31</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="F117" s="3"/>
-      <c r="G117" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="G117" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H117"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="3">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4657,20 +4671,20 @@
         <v>36</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="3">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4678,20 +4692,20 @@
         <v>36</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="3">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4699,20 +4713,20 @@
         <v>36</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="3">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4720,20 +4734,20 @@
         <v>36</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="3">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4741,20 +4755,20 @@
         <v>36</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="3">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4762,20 +4776,20 @@
         <v>36</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D124" s="3">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4783,20 +4797,20 @@
         <v>36</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="3">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4804,20 +4818,20 @@
         <v>36</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="3">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4825,41 +4839,41 @@
         <v>36</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="3">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" s="3">
+        <v>1011</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>214</v>
-      </c>
-      <c r="B128" t="s">
-        <v>17</v>
-      </c>
-      <c r="C128" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128" t="s">
-        <v>226</v>
-      </c>
-      <c r="F128"/>
-      <c r="G128" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -4867,20 +4881,20 @@
         <v>214</v>
       </c>
       <c r="B129" t="s">
-        <v>215</v>
+        <v>17</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="F129"/>
       <c r="G129" t="s">
-        <v>236</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -4888,20 +4902,20 @@
         <v>214</v>
       </c>
       <c r="B130" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F130"/>
       <c r="G130" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -4909,20 +4923,20 @@
         <v>214</v>
       </c>
       <c r="B131" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E131" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F131"/>
       <c r="G131" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -4930,20 +4944,20 @@
         <v>214</v>
       </c>
       <c r="B132" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
       </c>
       <c r="D132">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -4951,20 +4965,20 @@
         <v>214</v>
       </c>
       <c r="B133" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C133" t="s">
         <v>14</v>
       </c>
       <c r="D133">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E133" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -4972,20 +4986,20 @@
         <v>214</v>
       </c>
       <c r="B134" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
       </c>
       <c r="D134">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E134" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -4993,20 +5007,20 @@
         <v>214</v>
       </c>
       <c r="B135" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
       </c>
       <c r="D135">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E135" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F135"/>
       <c r="G135" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -5014,20 +5028,20 @@
         <v>214</v>
       </c>
       <c r="B136" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
       </c>
       <c r="D136">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E136" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -5035,20 +5049,20 @@
         <v>214</v>
       </c>
       <c r="B137" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
       </c>
       <c r="D137">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E137" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="s">
-        <v>116</v>
+        <v>240</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -5056,20 +5070,20 @@
         <v>214</v>
       </c>
       <c r="B138" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
       </c>
       <c r="D138">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E138" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F138"/>
       <c r="G138" t="s">
-        <v>243</v>
+        <v>116</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -5077,87 +5091,83 @@
         <v>214</v>
       </c>
       <c r="B139" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
       </c>
       <c r="D139">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>214</v>
+      </c>
+      <c r="B140" t="s">
+        <v>235</v>
+      </c>
+      <c r="C140" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140">
+        <v>11</v>
+      </c>
+      <c r="E140" t="s">
+        <v>247</v>
+      </c>
+      <c r="F140"/>
+      <c r="G140" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" s="3">
-        <v>0</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F140" s="3"/>
-      <c r="G140" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>304</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>307</v>
+        <v>17</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F141" s="3"/>
-      <c r="G141" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="H141"/>
-      <c r="I141"/>
-      <c r="J141"/>
-      <c r="K141"/>
+      <c r="G141" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>304</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F142" s="3"/>
       <c r="G142" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H142"/>
       <c r="I142"/>
@@ -5169,20 +5179,20 @@
         <v>304</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F143" s="3"/>
       <c r="G143" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H143"/>
       <c r="I143"/>
@@ -5190,13 +5200,25 @@
       <c r="K143"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144"/>
-      <c r="B144"/>
-      <c r="C144"/>
-      <c r="D144"/>
-      <c r="E144"/>
-      <c r="F144"/>
-      <c r="G144"/>
+      <c r="A144" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="3">
+        <v>3</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3" t="s">
+        <v>314</v>
+      </c>
       <c r="H144"/>
       <c r="I144"/>
       <c r="J144"/>
@@ -5215,8 +5237,18 @@
       <c r="J145"/>
       <c r="K145"/>
     </row>
-    <row r="146" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="G146" s="5"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146"/>
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146"/>
     </row>
     <row r="147" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="G147" s="5"/>
@@ -5232,6 +5264,9 @@
     </row>
     <row r="151" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="G151" s="5"/>
+    </row>
+    <row r="152" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G152" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/程序用_正式版_基础版/Scenes.xlsx
+++ b/程序用_正式版_基础版/Scenes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24907"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE11111-C991-4ADC-911F-E2AF7E91237C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8157ED7-C217-4A97-9266-A95816E58A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1110" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="330" windowWidth="25425" windowHeight="20610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@Types" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="425">
   <si>
     <t>ObjectType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -502,46 +502,6 @@
     <t>B11</t>
   </si>
   <si>
-    <t>基础护甲上限变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础生命上限变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础手雷上限变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础最终伤害变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础换弹冷却时间变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础1号弹上限变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础2号弹上限变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础3号弹上限变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础初始金币数量变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础金币掉落概率变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>移动速度</t>
   </si>
   <si>
@@ -636,10 +596,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基础冲刺技能冷却时间变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Room1_BOSS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1523,13 +1479,112 @@
   <si>
     <t>钻石</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力增加20%|40%|70%</t>
+  </si>
+  <si>
+    <t>生命值上限增加20%|50%|100%</t>
+  </si>
+  <si>
+    <t>后坐力减少50%|20%</t>
+  </si>
+  <si>
+    <t>换弹时间与填弹时间减少50%|20%</t>
+  </si>
+  <si>
+    <t>弹夹容量增加20%|50%|100%</t>
+  </si>
+  <si>
+    <t>暴击率增加20%|10%|5%</t>
+  </si>
+  <si>
+    <t>暴击伤害增加100%|60%|30%</t>
+  </si>
+  <si>
+    <t>移动速度增加10%</t>
+  </si>
+  <si>
+    <t>A32</t>
+  </si>
+  <si>
+    <t>A032</t>
+  </si>
+  <si>
+    <t>B012</t>
+  </si>
+  <si>
+    <t>B013</t>
+  </si>
+  <si>
+    <t>B014</t>
+  </si>
+  <si>
+    <t>B015</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>每失去1.5%的生命值,就减免1%的伤害</t>
+  </si>
+  <si>
+    <t>对敌造成伤害和自身受到伤害都增加100%</t>
+  </si>
+  <si>
+    <t>击杀10个敌人后，10秒内射击不消耗子弹</t>
+  </si>
+  <si>
+    <t>当生命值高于80%时，移动速度增加20%</t>
+  </si>
+  <si>
+    <t>每次受到伤害，生命值恢复3%</t>
+  </si>
+  <si>
+    <t>受到伤害后，3秒内移动速度增加50%</t>
+  </si>
+  <si>
+    <t>受到伤害后，3秒内暴击率增加30%</t>
+  </si>
+  <si>
+    <t>死亡时，复活并恢复50%生命值。之后本秘卷消失</t>
+  </si>
+  <si>
+    <t>对10m以外的敌人造成伤害会包含“穿甲”效果</t>
+  </si>
+  <si>
+    <t>击杀一个20m以外的敌人时，生命值上限增加2%，最高1000层</t>
+  </si>
+  <si>
+    <t>击杀一个5m以内的敌人时，生命值上限增加1%，最高2000层</t>
+  </si>
+  <si>
+    <t>来自10m以外的伤害减免60%，来自10m以内的伤害增加80%</t>
+  </si>
+  <si>
+    <t>来自10m以内的伤害减免60%，来自10m以外的伤害增加80%</t>
+  </si>
+  <si>
+    <t>击杀一个20m以外的敌人时，获得10%生命值上限的护盾</t>
+  </si>
+  <si>
+    <t>命中一个20m以外的敌人时，5秒内移动速度增加50%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1605,14 +1660,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF171A1D"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1628,6 +1691,29 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -1681,15 +1767,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1711,15 +1809,28 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="40% - 着色 3" xfId="3" builtinId="39"/>
+    <cellStyle name="40% - 着色 4" xfId="4" builtinId="43"/>
+    <cellStyle name="40% - 着色 6" xfId="5" builtinId="51"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2032,10 +2143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K152"/>
+  <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2043,8 +2154,8 @@
     <col min="1" max="1" width="38.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
     <col min="3" max="6" width="11" style="1"/>
-    <col min="7" max="7" width="36.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="54.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -2099,12 +2210,12 @@
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
@@ -2116,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
@@ -2125,10 +2236,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -2137,19 +2248,19 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -2158,19 +2269,19 @@
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
@@ -2179,19 +2290,19 @@
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
@@ -2200,19 +2311,19 @@
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
@@ -2221,19 +2332,19 @@
         <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>14</v>
@@ -2242,19 +2353,19 @@
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>14</v>
@@ -2263,19 +2374,19 @@
         <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>14</v>
@@ -2284,19 +2395,19 @@
         <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>14</v>
@@ -2305,11 +2416,11 @@
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2374,7 +2485,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -2385,7 +2496,7 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2393,7 +2504,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -2404,7 +2515,7 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2412,7 +2523,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -2423,7 +2534,7 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2431,7 +2542,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -2442,7 +2553,7 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2450,7 +2561,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -2461,7 +2572,7 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2469,7 +2580,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -2480,7 +2591,7 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2488,7 +2599,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -2499,7 +2610,7 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2507,7 +2618,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -2518,7 +2629,7 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2526,7 +2637,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -2537,7 +2648,7 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2554,14 +2665,14 @@
         <v>0</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>367</v>
+        <v>356</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2569,7 +2680,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>14</v>
@@ -2578,14 +2689,14 @@
         <v>101</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2593,7 +2704,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>14</v>
@@ -2602,14 +2713,14 @@
         <v>102</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2617,7 +2728,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>14</v>
@@ -2626,14 +2737,14 @@
         <v>103</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2641,7 +2752,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>14</v>
@@ -2650,14 +2761,14 @@
         <v>104</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2665,7 +2776,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>14</v>
@@ -2674,14 +2785,14 @@
         <v>105</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2689,7 +2800,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>14</v>
@@ -2698,14 +2809,14 @@
         <v>106</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2713,7 +2824,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>14</v>
@@ -2722,14 +2833,14 @@
         <v>107</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2737,7 +2848,7 @@
         <v>22</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>14</v>
@@ -2746,14 +2857,14 @@
         <v>108</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2761,7 +2872,7 @@
         <v>22</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>14</v>
@@ -2770,14 +2881,14 @@
         <v>200</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2785,7 +2896,7 @@
         <v>22</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>14</v>
@@ -2794,14 +2905,14 @@
         <v>201</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2809,7 +2920,7 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>14</v>
@@ -2818,14 +2929,14 @@
         <v>301</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2833,7 +2944,7 @@
         <v>22</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>14</v>
@@ -2842,14 +2953,14 @@
         <v>302</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2857,7 +2968,7 @@
         <v>22</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>14</v>
@@ -2866,14 +2977,14 @@
         <v>303</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2881,7 +2992,7 @@
         <v>22</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>14</v>
@@ -2890,14 +3001,14 @@
         <v>304</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2905,7 +3016,7 @@
         <v>22</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>14</v>
@@ -2914,14 +3025,14 @@
         <v>305</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2929,7 +3040,7 @@
         <v>22</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>14</v>
@@ -2938,14 +3049,14 @@
         <v>306</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2953,7 +3064,7 @@
         <v>22</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>14</v>
@@ -2962,14 +3073,14 @@
         <v>307</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2977,7 +3088,7 @@
         <v>22</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>14</v>
@@ -2986,14 +3097,14 @@
         <v>401</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3001,7 +3112,7 @@
         <v>22</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>14</v>
@@ -3010,14 +3121,14 @@
         <v>402</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3025,7 +3136,7 @@
         <v>22</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>14</v>
@@ -3034,14 +3145,14 @@
         <v>403</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3049,7 +3160,7 @@
         <v>22</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>14</v>
@@ -3058,14 +3169,14 @@
         <v>404</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3073,7 +3184,7 @@
         <v>22</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>14</v>
@@ -3082,14 +3193,14 @@
         <v>405</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3097,7 +3208,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>14</v>
@@ -3106,14 +3217,14 @@
         <v>406</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3121,7 +3232,7 @@
         <v>22</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>14</v>
@@ -3130,14 +3241,14 @@
         <v>407</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3145,7 +3256,7 @@
         <v>22</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>14</v>
@@ -3154,14 +3265,14 @@
         <v>408</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3169,7 +3280,7 @@
         <v>22</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>14</v>
@@ -3178,14 +3289,14 @@
         <v>409</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3213,7 +3324,7 @@
         <v>25</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -3222,13 +3333,13 @@
         <v>10001</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G54" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H54" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3236,7 +3347,7 @@
         <v>25</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -3245,13 +3356,13 @@
         <v>10002</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="G55" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="H55" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3259,7 +3370,7 @@
         <v>25</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -3268,13 +3379,13 @@
         <v>10003</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="G56" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="H56" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3282,7 +3393,7 @@
         <v>25</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -3291,13 +3402,13 @@
         <v>10004</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="G57" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="H57" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3305,7 +3416,7 @@
         <v>25</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -3314,13 +3425,13 @@
         <v>10005</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G58" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="H58" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3328,7 +3439,7 @@
         <v>25</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -3337,13 +3448,13 @@
         <v>10006</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="G59" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="H59" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3351,7 +3462,7 @@
         <v>25</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -3360,13 +3471,13 @@
         <v>10007</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="G60" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="H60" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3374,7 +3485,7 @@
         <v>25</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -3383,13 +3494,13 @@
         <v>10008</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="G61" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="H61" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3397,7 +3508,7 @@
         <v>25</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -3406,13 +3517,13 @@
         <v>10009</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G62" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="H62" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3420,7 +3531,7 @@
         <v>25</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -3429,13 +3540,13 @@
         <v>10010</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G63" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H63" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3443,7 +3554,7 @@
         <v>25</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -3452,13 +3563,13 @@
         <v>10011</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G64" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="H64" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3466,7 +3577,7 @@
         <v>25</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -3475,13 +3586,13 @@
         <v>10012</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="G65" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="H65" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3489,7 +3600,7 @@
         <v>25</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -3498,13 +3609,13 @@
         <v>10013</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="G66" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="H66" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3512,7 +3623,7 @@
         <v>25</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -3521,13 +3632,13 @@
         <v>20001</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="G67" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="H67" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3535,7 +3646,7 @@
         <v>25</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -3544,13 +3655,13 @@
         <v>20002</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="G68" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="H68" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3558,7 +3669,7 @@
         <v>25</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -3567,13 +3678,13 @@
         <v>20003</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G69" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H69" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3581,7 +3692,7 @@
         <v>25</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -3590,13 +3701,13 @@
         <v>20004</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="G70" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="H70" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3604,7 +3715,7 @@
         <v>25</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -3613,13 +3724,13 @@
         <v>20005</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="G71" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H71" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3627,7 +3738,7 @@
         <v>25</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -3636,13 +3747,13 @@
         <v>20006</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="G72" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="H72" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3650,7 +3761,7 @@
         <v>25</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -3659,13 +3770,13 @@
         <v>20007</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G73" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="H73" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3673,7 +3784,7 @@
         <v>25</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -3682,13 +3793,13 @@
         <v>20008</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="G74" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="H74" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3696,7 +3807,7 @@
         <v>25</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -3705,13 +3816,13 @@
         <v>20009</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G75" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="H75" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3719,7 +3830,7 @@
         <v>25</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3728,13 +3839,13 @@
         <v>20010</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G76" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H76" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3742,7 +3853,7 @@
         <v>25</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -3751,13 +3862,13 @@
         <v>20011</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="G77" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="H77" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3765,7 +3876,7 @@
         <v>25</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -3774,13 +3885,13 @@
         <v>30001</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="G78" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="H78" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3788,7 +3899,7 @@
         <v>25</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -3797,13 +3908,13 @@
         <v>30002</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="G79" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H79" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3811,7 +3922,7 @@
         <v>25</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3820,13 +3931,13 @@
         <v>30003</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G80" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="H80" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3834,7 +3945,7 @@
         <v>25</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3843,13 +3954,13 @@
         <v>30004</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G81" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="H81" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3857,7 +3968,7 @@
         <v>25</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -3866,13 +3977,13 @@
         <v>30005</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="G82" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="H82" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3880,7 +3991,7 @@
         <v>25</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -3889,13 +4000,13 @@
         <v>30006</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="G83" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H83" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3903,7 +4014,7 @@
         <v>25</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -3912,13 +4023,13 @@
         <v>40001</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="G84" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="H84" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3926,7 +4037,7 @@
         <v>25</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -3935,13 +4046,13 @@
         <v>40002</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="G85" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="H85" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3957,11 +4068,11 @@
       <c r="D86" s="3">
         <v>0</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3" t="s">
+      <c r="F86" s="11"/>
+      <c r="G86" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3976,14 +4087,14 @@
         <v>14</v>
       </c>
       <c r="D87" s="3">
-        <v>1</v>
-      </c>
-      <c r="E87" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E87" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3" t="s">
-        <v>117</v>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="H87"/>
     </row>
@@ -3998,16 +4109,18 @@
         <v>14</v>
       </c>
       <c r="D88" s="3">
-        <v>2</v>
-      </c>
-      <c r="E88" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E88" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H88"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -4020,16 +4133,18 @@
         <v>14</v>
       </c>
       <c r="D89" s="3">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E89" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H89"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
@@ -4042,15 +4157,16 @@
         <v>14</v>
       </c>
       <c r="D90" s="3">
-        <v>4</v>
-      </c>
-      <c r="E90" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E90" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H90"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
@@ -4063,15 +4179,16 @@
         <v>14</v>
       </c>
       <c r="D91" s="3">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E91" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3" t="s">
-        <v>119</v>
-      </c>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H91"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
@@ -4084,14 +4201,14 @@
         <v>14</v>
       </c>
       <c r="D92" s="3">
-        <v>6</v>
-      </c>
-      <c r="E92" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E92" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3" t="s">
-        <v>136</v>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="H92"/>
     </row>
@@ -4106,14 +4223,14 @@
         <v>14</v>
       </c>
       <c r="D93" s="3">
-        <v>7</v>
-      </c>
-      <c r="E93" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E93" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3" t="s">
-        <v>137</v>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="H93"/>
     </row>
@@ -4128,16 +4245,15 @@
         <v>14</v>
       </c>
       <c r="D94" s="3">
-        <v>8</v>
-      </c>
-      <c r="E94" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E94" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H94"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
@@ -4150,14 +4266,14 @@
         <v>14</v>
       </c>
       <c r="D95" s="3">
-        <v>9</v>
-      </c>
-      <c r="E95" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E95" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3" t="s">
-        <v>139</v>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="H95"/>
     </row>
@@ -4172,14 +4288,14 @@
         <v>14</v>
       </c>
       <c r="D96" s="3">
-        <v>10</v>
-      </c>
-      <c r="E96" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E96" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3" t="s">
-        <v>140</v>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="H96"/>
     </row>
@@ -4194,14 +4310,14 @@
         <v>14</v>
       </c>
       <c r="D97" s="3">
-        <v>11</v>
-      </c>
-      <c r="E97" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E97" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3" t="s">
-        <v>141</v>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="H97"/>
     </row>
@@ -4216,14 +4332,14 @@
         <v>14</v>
       </c>
       <c r="D98" s="3">
-        <v>12</v>
-      </c>
-      <c r="E98" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E98" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3" t="s">
-        <v>127</v>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="H98"/>
     </row>
@@ -4238,16 +4354,18 @@
         <v>14</v>
       </c>
       <c r="D99" s="3">
-        <v>13</v>
-      </c>
-      <c r="E99" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E99" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H99"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
@@ -4260,16 +4378,18 @@
         <v>14</v>
       </c>
       <c r="D100" s="3">
-        <v>14</v>
-      </c>
-      <c r="E100" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E100" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H100"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
@@ -4282,14 +4402,14 @@
         <v>14</v>
       </c>
       <c r="D101" s="3">
-        <v>15</v>
-      </c>
-      <c r="E101" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E101" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3" t="s">
-        <v>130</v>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="H101"/>
     </row>
@@ -4304,16 +4424,18 @@
         <v>14</v>
       </c>
       <c r="D102" s="3">
-        <v>16</v>
-      </c>
-      <c r="E102" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E102" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H102"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
@@ -4326,16 +4448,18 @@
         <v>14</v>
       </c>
       <c r="D103" s="3">
-        <v>17</v>
-      </c>
-      <c r="E103" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E103" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H103"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
@@ -4348,16 +4472,18 @@
         <v>14</v>
       </c>
       <c r="D104" s="3">
-        <v>18</v>
-      </c>
-      <c r="E104" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E104" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H104"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
@@ -4370,16 +4496,15 @@
         <v>14</v>
       </c>
       <c r="D105" s="3">
-        <v>19</v>
-      </c>
-      <c r="E105" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E105" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H105"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
@@ -4392,14 +4517,14 @@
         <v>14</v>
       </c>
       <c r="D106" s="3">
-        <v>20</v>
-      </c>
-      <c r="E106" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E106" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3" t="s">
-        <v>135</v>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="H106"/>
     </row>
@@ -4414,14 +4539,14 @@
         <v>14</v>
       </c>
       <c r="D107" s="3">
-        <v>21</v>
-      </c>
-      <c r="E107" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E107" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3" t="s">
-        <v>120</v>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="H107"/>
     </row>
@@ -4436,14 +4561,14 @@
         <v>14</v>
       </c>
       <c r="D108" s="3">
-        <v>22</v>
-      </c>
-      <c r="E108" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E108" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3" t="s">
-        <v>121</v>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="H108"/>
     </row>
@@ -4458,14 +4583,14 @@
         <v>14</v>
       </c>
       <c r="D109" s="3">
-        <v>23</v>
-      </c>
-      <c r="E109" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E109" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3" t="s">
-        <v>122</v>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="H109"/>
     </row>
@@ -4480,14 +4605,14 @@
         <v>14</v>
       </c>
       <c r="D110" s="3">
-        <v>24</v>
-      </c>
-      <c r="E110" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E110" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3" t="s">
-        <v>123</v>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="H110"/>
     </row>
@@ -4502,14 +4627,14 @@
         <v>14</v>
       </c>
       <c r="D111" s="3">
-        <v>25</v>
-      </c>
-      <c r="E111" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E111" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3" t="s">
-        <v>124</v>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="H111"/>
     </row>
@@ -4524,14 +4649,14 @@
         <v>14</v>
       </c>
       <c r="D112" s="3">
-        <v>26</v>
-      </c>
-      <c r="E112" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E112" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3" t="s">
-        <v>125</v>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="H112"/>
     </row>
@@ -4540,20 +4665,20 @@
         <v>36</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="3">
-        <v>27</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F113" s="3"/>
-      <c r="G113" s="7" t="s">
-        <v>188</v>
+        <v>1027</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="H113"/>
     </row>
@@ -4562,20 +4687,20 @@
         <v>36</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="3">
-        <v>28</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F114" s="3"/>
-      <c r="G114" s="7" t="s">
-        <v>189</v>
+        <v>1028</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="H114"/>
     </row>
@@ -4584,20 +4709,20 @@
         <v>36</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="3">
-        <v>29</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F115" s="3"/>
-      <c r="G115" s="7" t="s">
-        <v>190</v>
+        <v>1029</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="H115"/>
     </row>
@@ -4606,20 +4731,20 @@
         <v>36</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D116" s="3">
-        <v>30</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F116" s="3"/>
-      <c r="G116" s="7" t="s">
-        <v>191</v>
+        <v>1030</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="H116"/>
     </row>
@@ -4628,20 +4753,20 @@
         <v>36</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="3">
-        <v>31</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F117" s="3"/>
-      <c r="G117" s="7" t="s">
-        <v>195</v>
+        <v>1031</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="H117"/>
     </row>
@@ -4650,20 +4775,23 @@
         <v>36</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>88</v>
+        <v>401</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="3">
-        <v>1001</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3" t="s">
-        <v>106</v>
+        <v>1032</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4671,20 +4799,20 @@
         <v>36</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="3">
-        <v>1002</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3" t="s">
-        <v>107</v>
+        <v>2001</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4692,20 +4820,20 @@
         <v>36</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="3">
-        <v>1003</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3" t="s">
-        <v>108</v>
+        <v>2002</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4713,20 +4841,20 @@
         <v>36</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="3">
-        <v>1004</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3" t="s">
-        <v>142</v>
+        <v>2003</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4734,20 +4862,20 @@
         <v>36</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="3">
-        <v>1005</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3" t="s">
-        <v>109</v>
+        <v>2004</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4755,20 +4883,20 @@
         <v>36</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="3">
-        <v>1006</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3" t="s">
-        <v>110</v>
+        <v>2005</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4776,20 +4904,20 @@
         <v>36</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D124" s="3">
-        <v>1007</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3" t="s">
-        <v>111</v>
+        <v>2006</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4797,20 +4925,20 @@
         <v>36</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="3">
-        <v>1008</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3" t="s">
-        <v>112</v>
+        <v>2007</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4818,20 +4946,20 @@
         <v>36</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="3">
-        <v>1009</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3" t="s">
-        <v>113</v>
+        <v>2008</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4839,20 +4967,20 @@
         <v>36</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="3">
-        <v>1010</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3" t="s">
-        <v>114</v>
+        <v>2009</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4860,413 +4988,524 @@
         <v>36</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" s="3">
+        <v>2010</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="H128"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" s="3">
-        <v>1011</v>
-      </c>
-      <c r="E128" s="3" t="s">
+      <c r="C129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" s="3">
+        <v>2011</v>
+      </c>
+      <c r="E129" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>214</v>
-      </c>
-      <c r="B129" t="s">
+      <c r="F129" s="9"/>
+      <c r="G129" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="H129"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="3">
+        <v>2012</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="H130"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="H131"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="H132"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="H133"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>203</v>
+      </c>
+      <c r="B134" t="s">
         <v>17</v>
       </c>
-      <c r="C129" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129">
+      <c r="C134" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134">
         <v>0</v>
       </c>
-      <c r="E129" t="s">
-        <v>226</v>
-      </c>
-      <c r="F129"/>
-      <c r="G129" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>214</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="E134" t="s">
         <v>215</v>
-      </c>
-      <c r="C130" t="s">
-        <v>14</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130" t="s">
-        <v>217</v>
-      </c>
-      <c r="F130"/>
-      <c r="G130" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>214</v>
-      </c>
-      <c r="B131" t="s">
-        <v>216</v>
-      </c>
-      <c r="C131" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131">
-        <v>2</v>
-      </c>
-      <c r="E131" t="s">
-        <v>218</v>
-      </c>
-      <c r="F131"/>
-      <c r="G131" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>214</v>
-      </c>
-      <c r="B132" t="s">
-        <v>227</v>
-      </c>
-      <c r="C132" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132">
-        <v>3</v>
-      </c>
-      <c r="E132" t="s">
-        <v>219</v>
-      </c>
-      <c r="F132"/>
-      <c r="G132" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>214</v>
-      </c>
-      <c r="B133" t="s">
-        <v>228</v>
-      </c>
-      <c r="C133" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133">
-        <v>4</v>
-      </c>
-      <c r="E133" t="s">
-        <v>220</v>
-      </c>
-      <c r="F133"/>
-      <c r="G133" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>214</v>
-      </c>
-      <c r="B134" t="s">
-        <v>229</v>
-      </c>
-      <c r="C134" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134">
-        <v>5</v>
-      </c>
-      <c r="E134" t="s">
-        <v>221</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B135" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
       </c>
       <c r="D135">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="F135"/>
       <c r="G135" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B136" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
       </c>
       <c r="D136">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E136" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B137" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
       </c>
       <c r="D137">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B138" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
       </c>
       <c r="D138">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E138" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="F138"/>
       <c r="G138" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B139" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
       </c>
       <c r="D139">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E139" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B140" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
       </c>
       <c r="D140">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E140" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="F140"/>
       <c r="G140" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B141" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>203</v>
+      </c>
+      <c r="B141" t="s">
+        <v>220</v>
+      </c>
+      <c r="C141" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141">
+        <v>7</v>
+      </c>
+      <c r="E141" t="s">
+        <v>212</v>
+      </c>
+      <c r="F141"/>
+      <c r="G141" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>203</v>
+      </c>
+      <c r="B142" t="s">
+        <v>221</v>
+      </c>
+      <c r="C142" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142">
+        <v>8</v>
+      </c>
+      <c r="E142" t="s">
+        <v>213</v>
+      </c>
+      <c r="F142"/>
+      <c r="G142" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>203</v>
+      </c>
+      <c r="B143" t="s">
+        <v>222</v>
+      </c>
+      <c r="C143" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143">
+        <v>9</v>
+      </c>
+      <c r="E143" t="s">
+        <v>234</v>
+      </c>
+      <c r="F143"/>
+      <c r="G143" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>203</v>
+      </c>
+      <c r="B144" t="s">
+        <v>223</v>
+      </c>
+      <c r="C144" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144">
+        <v>10</v>
+      </c>
+      <c r="E144" t="s">
+        <v>235</v>
+      </c>
+      <c r="F144"/>
+      <c r="G144" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>203</v>
+      </c>
+      <c r="B145" t="s">
+        <v>224</v>
+      </c>
+      <c r="C145" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145">
+        <v>11</v>
+      </c>
+      <c r="E145" t="s">
+        <v>236</v>
+      </c>
+      <c r="F145"/>
+      <c r="G145" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" s="3">
+      <c r="C146" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="3">
         <v>0</v>
       </c>
-      <c r="E141" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F141" s="3"/>
-      <c r="G141" s="6" t="s">
+      <c r="E146" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F146" s="3"/>
+      <c r="G146" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" s="3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="3">
         <v>1</v>
       </c>
-      <c r="E142" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="H142"/>
-      <c r="I142"/>
-      <c r="J142"/>
-      <c r="K142"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143" s="3">
+      <c r="E147" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="3">
         <v>2</v>
       </c>
-      <c r="E143" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="F143" s="3"/>
-      <c r="G143" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="H143"/>
-      <c r="I143"/>
-      <c r="J143"/>
-      <c r="K143"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D144" s="3">
+      <c r="E148" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="3">
         <v>3</v>
       </c>
-      <c r="E144" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H144"/>
-      <c r="I144"/>
-      <c r="J144"/>
-      <c r="K144"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145"/>
-      <c r="B145"/>
-      <c r="C145"/>
-      <c r="D145"/>
-      <c r="E145"/>
-      <c r="F145"/>
-      <c r="G145"/>
-      <c r="H145"/>
-      <c r="I145"/>
-      <c r="J145"/>
-      <c r="K145"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146"/>
-      <c r="B146"/>
-      <c r="C146"/>
-      <c r="D146"/>
-      <c r="E146"/>
-      <c r="F146"/>
-      <c r="G146"/>
-      <c r="H146"/>
-      <c r="I146"/>
-      <c r="J146"/>
-      <c r="K146"/>
-    </row>
-    <row r="147" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="G147" s="5"/>
-    </row>
-    <row r="148" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="G148" s="5"/>
-    </row>
-    <row r="149" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="G149" s="5"/>
-    </row>
-    <row r="150" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="G150" s="5"/>
-    </row>
-    <row r="151" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="G151" s="5"/>
+      <c r="E149" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150"/>
+      <c r="B150"/>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150"/>
+      <c r="H150"/>
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151"/>
+      <c r="B151"/>
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151"/>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151"/>
     </row>
     <row r="152" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="G152" s="5"/>
+    </row>
+    <row r="153" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G153" s="5"/>
+    </row>
+    <row r="154" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G154" s="5"/>
+    </row>
+    <row r="155" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G155" s="5"/>
+    </row>
+    <row r="156" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G156" s="5"/>
+    </row>
+    <row r="157" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G157" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
